--- a/artfynd/A 9097-2021.xlsx
+++ b/artfynd/A 9097-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92877504</v>
+        <v>92877460</v>
       </c>
       <c r="B2" t="n">
-        <v>89412</v>
+        <v>104490</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>219686</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lathraea squamaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>563565.9699459416</v>
+        <v>563580.4029258011</v>
       </c>
       <c r="R2" t="n">
-        <v>6434535.848147285</v>
+        <v>6434562.017619756</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -796,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92877498</v>
+        <v>92877504</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>89412</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +821,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -887,11 +896,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>murken tallstubbe. Artbestämd av Steve Daurer.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -917,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92877460</v>
+        <v>92877498</v>
       </c>
       <c r="B4" t="n">
-        <v>104490</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,39 +933,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219686</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vätteros</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lathraea squamaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -969,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>563580.4029258011</v>
+        <v>563565.9699459416</v>
       </c>
       <c r="R4" t="n">
-        <v>6434562.017619756</v>
+        <v>6434535.848147285</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1015,6 +1010,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>murken tallstubbe. Artbestämd av Steve Daurer.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 9097-2021.xlsx
+++ b/artfynd/A 9097-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92877460</v>
+        <v>92877504</v>
       </c>
       <c r="B2" t="n">
-        <v>104490</v>
+        <v>89412</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219686</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vätteros</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lathraea squamaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -732,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>563580.4029258011</v>
+        <v>563565.9699459416</v>
       </c>
       <c r="R2" t="n">
-        <v>6434562.017619756</v>
+        <v>6434535.848147285</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -805,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92877504</v>
+        <v>92877498</v>
       </c>
       <c r="B3" t="n">
-        <v>89412</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -896,6 +887,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>murken tallstubbe. Artbestämd av Steve Daurer.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -921,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92877498</v>
+        <v>92877460</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>104490</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,30 +929,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>219686</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lathraea squamaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -964,10 +969,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>563565.9699459416</v>
+        <v>563580.4029258011</v>
       </c>
       <c r="R4" t="n">
-        <v>6434535.848147285</v>
+        <v>6434562.017619756</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1010,11 +1015,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>murken tallstubbe. Artbestämd av Steve Daurer.</t>
         </is>
       </c>
       <c r="AD4" t="b">
